--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Marketing Authorization Value Set</t>
+    <t>Marketing Authorization Holder Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Indicates the Marketing Authorization for product</t>
+    <t>Indicates the Marketing Authorization Holder of a product</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
+++ b/branches/master/ValueSet-be-marketingauthorization-holder-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
